--- a/src/main/java/com/crm/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\workspace4\flipcart\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D339FD-4622-4BD3-BEBB-3B36A438DD3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01190D54-D009-4330-9EC3-16156903F3B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>company</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>User Name</t>
-  </si>
-  <si>
-    <t>Camera</t>
   </si>
   <si>
     <t>Canon IXUS 190</t>
@@ -413,7 +410,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -437,10 +434,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
